--- a/scrum/burndown_template.xlsx
+++ b/scrum/burndown_template.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msudenver-my.sharepoint.com/personal/tmota_msudenver_edu/Documents/Teaching/Courses/__24SCS3250_SE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayle\cs3250\project-3-student-management-blueteam\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7397B228-E7AA-634C-96A5-F3624B942EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD0DC71-EE72-4D99-8987-95C59E90D38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15020" xr2:uid="{7A4C5A10-B1D5-9946-8D6C-7E3C0798020F}"/>
+    <workbookView xWindow="-180" yWindow="792" windowWidth="12672" windowHeight="11172" xr2:uid="{7A4C5A10-B1D5-9946-8D6C-7E3C0798020F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$2:$G$2</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$2:$G$2</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$G$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$2:$G$2</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -61,12 +45,6 @@
   </si>
   <si>
     <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>Sprint 5</t>
   </si>
   <si>
     <t>Planned</t>
@@ -82,6 +60,36 @@
   </si>
   <si>
     <t>Ideal</t>
+  </si>
+  <si>
+    <t>US 1</t>
+  </si>
+  <si>
+    <t>US 2</t>
+  </si>
+  <si>
+    <t>US 3</t>
+  </si>
+  <si>
+    <t>US 4</t>
+  </si>
+  <si>
+    <t>US 5</t>
+  </si>
+  <si>
+    <t>US 6</t>
+  </si>
+  <si>
+    <t>US 7</t>
+  </si>
+  <si>
+    <t>US 8</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>US Points</t>
   </si>
 </sst>
 </file>
@@ -160,7 +168,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -288,9 +296,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$G$1</c:f>
+              <c:f>Sheet1!$C$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Sprint 1</c:v>
                 </c:pt>
@@ -300,35 +308,23 @@
                 <c:pt idx="2">
                   <c:v>Sprint 3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sprint 5</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$G$2</c:f>
+              <c:f>Sheet1!$C$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -357,9 +353,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$G$1</c:f>
+              <c:f>Sheet1!$C$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Sprint 1</c:v>
                 </c:pt>
@@ -369,35 +365,17 @@
                 <c:pt idx="2">
                   <c:v>Sprint 3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sprint 5</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$G$3</c:f>
+              <c:f>Sheet1!$C$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -443,24 +421,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$G$4</c:f>
+              <c:f>Sheet1!$C$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>175</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -492,24 +464,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$G$5</c:f>
+              <c:f>Sheet1!$C$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1287,13 +1253,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>29936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>178708</xdr:rowOff>
@@ -1325,9 +1291,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1365,7 +1331,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1471,7 +1437,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1613,7 +1579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1621,21 +1587,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46ADD8F6-D520-684C-80D6-92D618A9A1CC}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="11.69921875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1646,107 +1612,175 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3">
-        <v>80</v>
-      </c>
-      <c r="F2" s="3">
-        <v>40</v>
-      </c>
-      <c r="G2" s="3">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
-        <v>50</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45</v>
-      </c>
-      <c r="E3" s="4">
-        <v>65</v>
-      </c>
-      <c r="F3" s="4">
-        <v>50</v>
-      </c>
-      <c r="G3" s="4">
-        <v>40</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
         <f>B5-C2</f>
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:G4" si="0">C5-D2</f>
-        <v>140</v>
+        <f t="shared" ref="D4:E4" si="0">C5-D2</f>
+        <v>8</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>250</v>
+        <f>SUM(B8:B15)</f>
+        <v>23</v>
       </c>
       <c r="C5" s="4">
         <f>B5-C3</f>
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:G5" si="1">C5-D3</f>
-        <v>155</v>
+        <f t="shared" ref="D5:E5" si="1">C5-D3</f>
+        <v>17</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/scrum/burndown_template.xlsx
+++ b/scrum/burndown_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayle\cs3250\project-3-student-management-blueteam\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD0DC71-EE72-4D99-8987-95C59E90D38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E92FB83-2B6C-413A-BC20-C25F6C6DDDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="792" windowWidth="12672" windowHeight="11172" xr2:uid="{7A4C5A10-B1D5-9946-8D6C-7E3C0798020F}"/>
+    <workbookView xWindow="708" yWindow="1068" windowWidth="16524" windowHeight="11172" xr2:uid="{7A4C5A10-B1D5-9946-8D6C-7E3C0798020F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,6 +377,12 @@
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -432,7 +438,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -472,10 +478,10 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,7 +1596,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1636,8 +1642,12 @@
       <c r="C3" s="4">
         <v>6</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="4">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1654,7 +1664,7 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1671,11 +1681,11 @@
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:E5" si="1">C5-D3</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">

--- a/scrum/burndown_template.xlsx
+++ b/scrum/burndown_template.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://msudenver-my.sharepoint.com/personal/tmota_msudenver_edu/Documents/Teaching/Courses/__24SCS3250_SE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayle\cs3250\project-3-student-management-blueteam\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7397B228-E7AA-634C-96A5-F3624B942EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E92FB83-2B6C-413A-BC20-C25F6C6DDDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15020" xr2:uid="{7A4C5A10-B1D5-9946-8D6C-7E3C0798020F}"/>
+    <workbookView xWindow="708" yWindow="1068" windowWidth="16524" windowHeight="11172" xr2:uid="{7A4C5A10-B1D5-9946-8D6C-7E3C0798020F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$2:$G$2</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$2:$G$2</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$G$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$3:$G$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$4:$G$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$2:$G$2</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -61,12 +45,6 @@
   </si>
   <si>
     <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>Sprint 5</t>
   </si>
   <si>
     <t>Planned</t>
@@ -82,6 +60,36 @@
   </si>
   <si>
     <t>Ideal</t>
+  </si>
+  <si>
+    <t>US 1</t>
+  </si>
+  <si>
+    <t>US 2</t>
+  </si>
+  <si>
+    <t>US 3</t>
+  </si>
+  <si>
+    <t>US 4</t>
+  </si>
+  <si>
+    <t>US 5</t>
+  </si>
+  <si>
+    <t>US 6</t>
+  </si>
+  <si>
+    <t>US 7</t>
+  </si>
+  <si>
+    <t>US 8</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>US Points</t>
   </si>
 </sst>
 </file>
@@ -160,7 +168,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -288,9 +296,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$G$1</c:f>
+              <c:f>Sheet1!$C$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Sprint 1</c:v>
                 </c:pt>
@@ -300,35 +308,23 @@
                 <c:pt idx="2">
                   <c:v>Sprint 3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sprint 5</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$G$2</c:f>
+              <c:f>Sheet1!$C$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -357,9 +353,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$1:$G$1</c:f>
+              <c:f>Sheet1!$C$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Sprint 1</c:v>
                 </c:pt>
@@ -369,35 +365,23 @@
                 <c:pt idx="2">
                   <c:v>Sprint 3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sprint 5</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$G$3</c:f>
+              <c:f>Sheet1!$C$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -443,23 +427,17 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$G$4</c:f>
+              <c:f>Sheet1!$C$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>175</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -492,23 +470,17 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$G$5</c:f>
+              <c:f>Sheet1!$C$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1287,13 +1259,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>29936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>178708</xdr:rowOff>
@@ -1325,9 +1297,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1365,7 +1337,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1471,7 +1443,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1613,7 +1585,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1621,21 +1593,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46ADD8F6-D520-684C-80D6-92D618A9A1CC}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="11.69921875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1646,107 +1618,179 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3">
-        <v>80</v>
-      </c>
-      <c r="F2" s="3">
-        <v>40</v>
-      </c>
-      <c r="G2" s="3">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4">
-        <v>65</v>
-      </c>
-      <c r="F3" s="4">
-        <v>50</v>
-      </c>
-      <c r="G3" s="4">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
         <f>B5-C2</f>
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:G4" si="0">C5-D2</f>
-        <v>140</v>
+        <f t="shared" ref="D4:E4" si="0">C5-D2</f>
+        <v>8</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>250</v>
+        <f>SUM(B8:B15)</f>
+        <v>23</v>
       </c>
       <c r="C5" s="4">
         <f>B5-C3</f>
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:G5" si="1">C5-D3</f>
-        <v>155</v>
+        <f t="shared" ref="D5:E5" si="1">C5-D3</f>
+        <v>8</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
